--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cort-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cort-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4759383333333333</v>
+        <v>0.5447316666666667</v>
       </c>
       <c r="N2">
-        <v>1.427815</v>
+        <v>1.634195</v>
       </c>
       <c r="O2">
-        <v>0.1284588056245616</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="P2">
-        <v>0.1284588056245616</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="Q2">
-        <v>0.05236019709555555</v>
+        <v>0.05992847273111111</v>
       </c>
       <c r="R2">
-        <v>0.4712417738599999</v>
+        <v>0.53935625458</v>
       </c>
       <c r="S2">
-        <v>0.1284588056245616</v>
+        <v>0.1484165462704666</v>
       </c>
       <c r="T2">
-        <v>0.1284588056245616</v>
+        <v>0.1484165462704666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +620,10 @@
         <v>7.115563</v>
       </c>
       <c r="O3">
-        <v>0.6401786816403544</v>
+        <v>0.6462308875194944</v>
       </c>
       <c r="P3">
-        <v>0.6401786816403543</v>
+        <v>0.6462308875194943</v>
       </c>
       <c r="Q3">
         <v>0.2609387638635555</v>
@@ -635,10 +632,10 @@
         <v>2.348448874772</v>
       </c>
       <c r="S3">
-        <v>0.6401786816403544</v>
+        <v>0.6462308875194944</v>
       </c>
       <c r="T3">
-        <v>0.6401786816403543</v>
+        <v>0.6462308875194943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,90 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8020063333333334</v>
+        <v>0.7537033333333333</v>
       </c>
       <c r="N4">
-        <v>2.406019</v>
+        <v>2.26111</v>
       </c>
       <c r="O4">
-        <v>0.2164666480251308</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="P4">
-        <v>0.2164666480251308</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="Q4">
-        <v>0.08823245942622222</v>
+        <v>0.08291842098222221</v>
       </c>
       <c r="R4">
-        <v>0.7940921348360001</v>
+        <v>0.7462657888399999</v>
       </c>
       <c r="S4">
-        <v>0.2164666480251308</v>
+        <v>0.205352566210039</v>
       </c>
       <c r="T4">
-        <v>0.2164666480251308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1100146666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.330044</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.05518900000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.165567</v>
-      </c>
-      <c r="O5">
-        <v>0.01489586470995318</v>
-      </c>
-      <c r="P5">
-        <v>0.01489586470995318</v>
-      </c>
-      <c r="Q5">
-        <v>0.006071599438666668</v>
-      </c>
-      <c r="R5">
-        <v>0.054644394948</v>
-      </c>
-      <c r="S5">
-        <v>0.01489586470995318</v>
-      </c>
-      <c r="T5">
-        <v>0.01489586470995318</v>
+        <v>0.205352566210039</v>
       </c>
     </row>
   </sheetData>
